--- a/dist/templates/BOM_Template.xlsx
+++ b/dist/templates/BOM_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott/workspace/hanslworkspace/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9D24D-AEE1-1543-AA79-C476CCD6F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3A48D8-041A-EF4A-BE1B-A3D6C7CB4F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="620" windowWidth="29040" windowHeight="15720" xr2:uid="{F1CE6910-8EAF-44E5-A29B-A988043F1E21}"/>
+    <workbookView xWindow="960" yWindow="680" windowWidth="29280" windowHeight="18960" xr2:uid="{F1CE6910-8EAF-44E5-A29B-A988043F1E21}"/>
   </bookViews>
   <sheets>
     <sheet name="H25-128-1_MILTESTONE_HOME_IOT_D" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="116">
   <si>
     <t>BD1</t>
   </si>
@@ -49,15 +49,9 @@
     <t>C0.1UF_16V_1005_OPEN</t>
   </si>
   <si>
-    <t>C31,C33,C35,C37</t>
-  </si>
-  <si>
     <t>C0.1UF_16V_1005</t>
   </si>
   <si>
-    <t>C32,C34,C36</t>
-  </si>
-  <si>
     <t>C10UF_1005</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>C1UF_1005</t>
   </si>
   <si>
-    <t>D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12,D13,D14,D15,D16,D20</t>
-  </si>
-  <si>
     <t>TPD2EUSB30DRTR</t>
   </si>
   <si>
@@ -85,15 +76,9 @@
     <t>DOORBELL_2ND_BOT_PAD</t>
   </si>
   <si>
-    <t>J2,J3</t>
-  </si>
-  <si>
     <t>DF40GL-44DP-0.4V_58</t>
   </si>
   <si>
-    <t>R1,R2,R3,R4,R5,R6,R7,R8,R9,R10</t>
-  </si>
-  <si>
     <t>R10K_1005_OPEN</t>
   </si>
   <si>
@@ -104,18 +89,6 @@
   </si>
   <si>
     <t>W25Q16JVSSIQ_OPEN</t>
-  </si>
-  <si>
-    <t>C1UF_16V_1005</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10UF_10V_1005</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FPD2EUSB30DRTR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Artwork 담당자</t>
@@ -212,14 +185,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>PAD</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DF40GL-44DP-0.4V(58)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>RefDes</t>
   </si>
   <si>
@@ -416,14 +381,6 @@
   </si>
   <si>
     <t>DOORBELL_2ND_SUB</t>
-  </si>
-  <si>
-    <t>나유성 과장</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재형 과장</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>신규</t>
@@ -434,15 +391,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>H25-128-1_Miltestone_Home_IOT_Doorbell_2nd_CM_BOT_Board_V1.0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>** H25-128-1_Miltestone_Home_IOT_Doorbell_2nd_CM_BOT_Board_V1.0 **</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>20790-060E-02</t>
+    <t>□양호 □불량</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +403,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,28 +604,9 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="굴림체"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="굴림체"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="굴림체"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="굴림체"/>
       <family val="3"/>
       <charset val="129"/>
@@ -690,6 +620,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -877,7 +823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1226,43 +1172,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -1559,7 +1468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1608,70 +1517,37 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="37" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="40" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
@@ -1683,110 +1559,110 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="44" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="44" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="39" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="36" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="40" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="37" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="40" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="37" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -2169,7 +2045,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2187,436 +2063,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="43"/>
+      <c r="I1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="31" t="s">
+      <c r="H2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" ht="16" thickBot="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15">
-      <c r="A2" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="71"/>
-    </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="72"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" ht="20" thickBot="1">
-      <c r="A5" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
+      <c r="A5" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" ht="17" thickTop="1" thickBot="1">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>45</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="66" t="s">
-        <v>128</v>
-      </c>
+      <c r="B7" s="52"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5">
-        <v>5</v>
-      </c>
-      <c r="F7" s="37"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="7">
-        <v>2025.11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="47" customFormat="1" ht="15">
-      <c r="A8" s="41">
-        <v>1</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="44">
-        <v>1</v>
-      </c>
-      <c r="E8" s="44">
-        <v>0</v>
-      </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30">
-      <c r="A9" s="48">
-        <f>A8+1</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="13">
-        <v>17</v>
-      </c>
-      <c r="E9" s="55">
-        <f t="shared" ref="E9:E17" si="0">$E$7*$D9</f>
-        <v>85</v>
-      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="56"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="57"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="58"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>10</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H9" s="14"/>
       <c r="I9" s="12"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="48">
-        <f t="shared" ref="A10:A16" si="1">A9+1</f>
-        <v>3</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="13">
-        <v>4</v>
-      </c>
-      <c r="E10" s="55">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+    <row r="10" spans="1:10">
+      <c r="A10" s="58"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>4</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H10" s="14"/>
       <c r="I10" s="12"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="48">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="55">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+    <row r="11" spans="1:10">
+      <c r="A11" s="58"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>8</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H11" s="14"/>
       <c r="I11" s="12"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="48">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="13">
-        <v>3</v>
-      </c>
-      <c r="E12" s="55">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+    <row r="12" spans="1:10">
+      <c r="A12" s="58"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>6</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H12" s="14"/>
       <c r="I12" s="12"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:10" s="47" customFormat="1" ht="15">
-      <c r="A13" s="48">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="17">
-        <v>1</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="48">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="17">
-        <v>10</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" s="47" customFormat="1" ht="15">
-      <c r="A15" s="48">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="17">
-        <v>1</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="48">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-      <c r="E16" s="55">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+    <row r="13" spans="1:10">
+      <c r="A13" s="58"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="58"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="58"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="58"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>12</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H16" s="14"/>
       <c r="I16" s="12"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="48">
-        <f t="shared" ref="A17:A18" si="2">A16+1</f>
-        <v>10</v>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="13">
-        <v>2</v>
-      </c>
-      <c r="E17" s="55">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+    <row r="17" spans="1:10">
+      <c r="A17" s="58"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>16</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="H17" s="14"/>
       <c r="I17" s="12"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" s="47" customFormat="1" ht="16" thickBot="1">
-      <c r="A18" s="53">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="28">
-        <v>1</v>
-      </c>
-      <c r="E18" s="28">
-        <v>0</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="30" t="s">
-        <v>55</v>
-      </c>
+    <row r="18" spans="1:10" ht="15" thickBot="1">
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10" ht="15" thickTop="1"/>
   </sheetData>
@@ -2636,10 +2364,8 @@
     <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{F13D2651-3A7E-4CEA-96CA-8AC754B0F45B}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="11" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2660,103 +2386,103 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="B2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1">
-      <c r="A3" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="63">
+      <c r="A3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="37">
         <v>263.59500000000003</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="37">
         <v>9.85</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="37">
         <v>270</v>
       </c>
-      <c r="H3" s="63" t="s">
-        <v>53</v>
+      <c r="H3" s="37" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="21">
+      <c r="A4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="17">
         <v>272.85000000000002</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="17">
         <v>23.6</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="17">
         <v>90</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>272.85000000000002</v>
@@ -2770,13 +2496,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>272.85000000000002</v>
@@ -2790,13 +2516,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>267.35000000000002</v>
@@ -2810,13 +2536,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>267.45</v>
@@ -2830,13 +2556,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>270.75</v>
@@ -2850,13 +2576,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>266.64999999999998</v>
@@ -2870,13 +2596,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>270.75</v>
@@ -2890,13 +2616,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>266.64999999999998</v>
@@ -2910,13 +2636,13 @@
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>271.14999999999998</v>
@@ -2930,13 +2656,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>267.95</v>
@@ -2950,13 +2676,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>271.14999999999998</v>
@@ -2970,13 +2696,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>267.95</v>
@@ -2990,13 +2716,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="B17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>271.14999999999998</v>
@@ -3009,39 +2735,39 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" thickBot="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="56">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="30">
         <v>267.95</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="30">
         <v>50.3</v>
       </c>
-      <c r="G18" s="56">
+      <c r="G18" s="30">
         <v>90</v>
       </c>
-      <c r="H18" s="56"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>272.8</v>
@@ -3055,13 +2781,13 @@
     </row>
     <row r="20" spans="1:8">
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>269.39999999999998</v>
@@ -3075,13 +2801,13 @@
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>270.5</v>
@@ -3095,13 +2821,13 @@
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>103.1</v>
@@ -3114,58 +2840,58 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="19">
         <v>103.108</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="19">
         <v>13</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="19">
         <v>0</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="20">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="16">
         <v>272.8</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="16">
         <v>21.1</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="16">
         <v>180</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>269.39999999999998</v>
@@ -3178,296 +2904,296 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="62">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="36">
         <v>269.5</v>
       </c>
-      <c r="F26" s="62">
+      <c r="F26" s="36">
         <v>26.9</v>
       </c>
-      <c r="G26" s="62">
+      <c r="G26" s="36">
         <v>270</v>
       </c>
-      <c r="H26" s="62"/>
+      <c r="H26" s="36"/>
     </row>
     <row r="27" spans="1:8" ht="18" thickBot="1">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61" t="s">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="59">
+      <c r="D27" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="33">
         <v>267</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="33">
         <v>7.7</v>
       </c>
-      <c r="G27" s="59">
+      <c r="G27" s="33">
         <v>90</v>
       </c>
-      <c r="H27" s="59" t="s">
-        <v>53</v>
+      <c r="H27" s="33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="58">
+      <c r="A28" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="32">
         <v>267</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="32">
         <v>11.1</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G28" s="32">
         <v>270</v>
       </c>
-      <c r="H28" s="58" t="s">
-        <v>54</v>
+      <c r="H28" s="32" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="59">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="33">
         <v>264.7</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="33">
         <v>5.4</v>
       </c>
-      <c r="G29" s="59">
+      <c r="G29" s="33">
         <v>180</v>
       </c>
-      <c r="H29" s="59" t="s">
-        <v>53</v>
+      <c r="H29" s="33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="59">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="33">
         <v>264.7</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F30" s="33">
         <v>15.7</v>
       </c>
-      <c r="G30" s="59">
+      <c r="G30" s="33">
         <v>90</v>
       </c>
-      <c r="H30" s="59" t="s">
-        <v>53</v>
+      <c r="H30" s="33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="59">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="33">
         <v>263.2</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="33">
         <v>15.7</v>
       </c>
-      <c r="G31" s="59">
+      <c r="G31" s="33">
         <v>90</v>
       </c>
-      <c r="H31" s="59" t="s">
-        <v>53</v>
+      <c r="H31" s="33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="59">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="33">
         <v>261.7</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="33">
         <v>15.7</v>
       </c>
-      <c r="G32" s="59">
+      <c r="G32" s="33">
         <v>90</v>
       </c>
-      <c r="H32" s="59" t="s">
-        <v>53</v>
+      <c r="H32" s="33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="59">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="33">
         <v>260.2</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="33">
         <v>15.7</v>
       </c>
-      <c r="G33" s="59">
+      <c r="G33" s="33">
         <v>90</v>
       </c>
-      <c r="H33" s="59" t="s">
-        <v>53</v>
+      <c r="H33" s="33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="59">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="33">
         <v>264.7</v>
       </c>
-      <c r="F34" s="59">
+      <c r="F34" s="33">
         <v>18.2</v>
       </c>
-      <c r="G34" s="59">
+      <c r="G34" s="33">
         <v>270</v>
       </c>
-      <c r="H34" s="59" t="s">
-        <v>53</v>
+      <c r="H34" s="33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="59">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="33">
         <v>263.2</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="33">
         <v>18.2</v>
       </c>
-      <c r="G35" s="59">
+      <c r="G35" s="33">
         <v>270</v>
       </c>
-      <c r="H35" s="59" t="s">
-        <v>53</v>
+      <c r="H35" s="33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="59">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="33">
         <v>261.7</v>
       </c>
-      <c r="F36" s="59">
+      <c r="F36" s="33">
         <v>18.2</v>
       </c>
-      <c r="G36" s="59">
+      <c r="G36" s="33">
         <v>270</v>
       </c>
-      <c r="H36" s="59" t="s">
-        <v>53</v>
+      <c r="H36" s="33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18" thickBot="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="22">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="18">
         <v>260.2</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="18">
         <v>18.2</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="18">
         <v>270</v>
       </c>
-      <c r="H37" s="22" t="s">
-        <v>53</v>
+      <c r="H37" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" thickBot="1">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -3476,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E38">
         <v>278.5</v>
@@ -3489,62 +3215,62 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="57" t="s">
+      <c r="A39" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="31">
+        <v>278.11</v>
+      </c>
+      <c r="F39" s="31">
+        <v>36.29</v>
+      </c>
+      <c r="G39" s="31">
+        <v>90</v>
+      </c>
+      <c r="H39" s="31"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" thickBot="1">
+      <c r="A40" s="30"/>
+      <c r="B40" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="57">
-        <v>278.11</v>
-      </c>
-      <c r="F39" s="57">
-        <v>36.29</v>
-      </c>
-      <c r="G39" s="57">
-        <v>90</v>
-      </c>
-      <c r="H39" s="57"/>
-    </row>
-    <row r="40" spans="1:8" ht="18" thickBot="1">
-      <c r="A40" s="56"/>
-      <c r="B40" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="22">
+      <c r="C40" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="18">
         <v>72.7</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="18">
         <v>67.349999999999994</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="18">
         <v>180</v>
       </c>
-      <c r="H40" s="22" t="s">
-        <v>53</v>
+      <c r="H40" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3558,13 +3284,13 @@
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3578,13 +3304,13 @@
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E47">
         <v>190</v>
@@ -3598,13 +3324,13 @@
     </row>
     <row r="48" spans="1:8">
       <c r="B48" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C48">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E48">
         <v>57.8</v>
@@ -3618,13 +3344,13 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E49">
         <v>278.5</v>
@@ -3638,13 +3364,13 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E50">
         <v>269</v>
@@ -3658,13 +3384,13 @@
     </row>
     <row r="51" spans="2:7">
       <c r="B51" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E51">
         <v>258.5</v>
@@ -3678,13 +3404,13 @@
     </row>
     <row r="52" spans="2:7">
       <c r="B52" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E52">
         <v>253</v>
@@ -3698,13 +3424,13 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E53">
         <v>253</v>
@@ -3718,13 +3444,13 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E54">
         <v>255</v>
@@ -3738,13 +3464,13 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E55">
         <v>255</v>
@@ -3758,13 +3484,13 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E56">
         <v>261</v>
@@ -3778,13 +3504,13 @@
     </row>
     <row r="57" spans="2:7">
       <c r="B57" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E57">
         <v>259</v>
@@ -3798,13 +3524,13 @@
     </row>
     <row r="58" spans="2:7">
       <c r="B58" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E58">
         <v>261.7</v>
@@ -3818,13 +3544,13 @@
     </row>
     <row r="59" spans="2:7">
       <c r="B59" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E59">
         <v>263</v>
@@ -3838,13 +3564,13 @@
     </row>
     <row r="60" spans="2:7">
       <c r="B60" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E60">
         <v>250</v>
@@ -3858,13 +3584,13 @@
     </row>
     <row r="61" spans="2:7">
       <c r="B61" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E61">
         <v>250</v>
@@ -3878,13 +3604,13 @@
     </row>
     <row r="62" spans="2:7">
       <c r="B62" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E62">
         <v>269</v>
@@ -3898,13 +3624,13 @@
     </row>
     <row r="63" spans="2:7">
       <c r="B63" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E63">
         <v>255</v>
@@ -3942,77 +3668,77 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="B2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="A3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="17">
         <v>185.92500000000001</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="17">
         <v>45.3</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="17">
         <v>180</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="18" thickBot="1">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>193.6</v>
@@ -4025,50 +3751,50 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="A5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="17">
         <v>190</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="17">
         <v>50</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="17">
         <v>180</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="18" thickBot="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="56">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="30">
         <v>190</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="30">
         <v>28</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="30">
         <v>180</v>
       </c>
-      <c r="H6" s="56"/>
+      <c r="H6" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
